--- a/Backend/store/output.xlsx
+++ b/Backend/store/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -31,40 +31,16 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>2023-04-14T14:55</t>
-  </si>
-  <si>
-    <t>Santosh Yadav</t>
+    <t>2023-04-17T12:34</t>
+  </si>
+  <si>
+    <t>Master</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>Advance for t site</t>
-  </si>
-  <si>
-    <t>2023-04-14T15:29</t>
-  </si>
-  <si>
-    <t>Advance from Santosh for furniture work.</t>
-  </si>
-  <si>
-    <t>2023-04-15T15:30</t>
-  </si>
-  <si>
-    <t>Credit-Card</t>
-  </si>
-  <si>
-    <t>Remaining payment for the site.</t>
-  </si>
-  <si>
-    <t>2023-04-22T15:47</t>
-  </si>
-  <si>
-    <t>Amazon-Pay</t>
-  </si>
-  <si>
-    <t>Advance from Santosh yadav for furniture and pop contract</t>
+    <t>advance</t>
   </si>
 </sst>
 </file>
@@ -456,7 +432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F2"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -503,67 +479,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="3">
-        <v>25000.65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="3">
-        <v>460000.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="3">
-        <v>56000</v>
+        <v>44999</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/store/output.xlsx
+++ b/Backend/store/output.xlsx
@@ -31,7 +31,7 @@
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>2023-04-17T12:34</t>
+    <t>12/04/23</t>
   </si>
   <si>
     <t>Master</t>
@@ -40,7 +40,7 @@
     <t>Cash</t>
   </si>
   <si>
-    <t>advance</t>
+    <t>etygf</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
         <v>9</v>
       </c>
       <c r="F2" s="3">
-        <v>44999</v>
+        <v>4522</v>
       </c>
     </row>
   </sheetData>

--- a/Backend/store/output.xlsx
+++ b/Backend/store/output.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -22,25 +22,86 @@
     <t>CUSTOMER_NAME</t>
   </si>
   <si>
+    <t>DEALER_NAME</t>
+  </si>
+  <si>
+    <t>SITE_NAME</t>
+  </si>
+  <si>
+    <t>REMARK</t>
+  </si>
+  <si>
     <t>MOP</t>
   </si>
   <si>
-    <t>REMARK</t>
+    <t>WORK_TYPE</t>
   </si>
   <si>
     <t>AMOUNT</t>
   </si>
   <si>
-    <t>12/04/23</t>
-  </si>
-  <si>
-    <t>Master</t>
+    <t>2023-11-18T16:51</t>
+  </si>
+  <si>
+    <t>Dr. Neelam Panday</t>
+  </si>
+  <si>
+    <t>Sanjay Furniture Harware</t>
+  </si>
+  <si>
+    <t>Silk Road Karond</t>
+  </si>
+  <si>
+    <t>Material - 10 Ply wood, 10 sheet of glossy mayka white, 2 sheet of red color mayka, 5 kg favicol, 2 kilo keel, 15- albihari kabze</t>
+  </si>
+  <si>
+    <t>Phone Pay</t>
+  </si>
+  <si>
+    <t>Modular Kitchen</t>
+  </si>
+  <si>
+    <t>2023-11-18T16:59</t>
+  </si>
+  <si>
+    <t>Crafts Home Furniture</t>
+  </si>
+  <si>
+    <t>Labour - To develop Modular Kitchen complete</t>
+  </si>
+  <si>
+    <t>Phone-Pay</t>
+  </si>
+  <si>
+    <t>2023-11-18T17:06</t>
+  </si>
+  <si>
+    <t>Gupta Harware</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material - 10 POP board, 
+2 kilo screws,
+100 - Bend pipes
+200 - ss fitting
+10 - kilo POP powder</t>
   </si>
   <si>
     <t>Cash</t>
   </si>
   <si>
-    <t>etygf</t>
+    <t>POP False Ceiling</t>
+  </si>
+  <si>
+    <t>2023-11-18T17:08</t>
+  </si>
+  <si>
+    <t>Raees Pathan</t>
+  </si>
+  <si>
+    <t>Labour - To make complete cieling tendor</t>
+  </si>
+  <si>
+    <t>Credit-Card</t>
   </si>
 </sst>
 </file>
@@ -432,17 +493,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:I5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="30" customWidth="1"/>
-    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="35" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -461,25 +525,130 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="3">
-        <v>4522</v>
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="3">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3">
+        <v>35000</v>
       </c>
     </row>
   </sheetData>
